--- a/biology/Biochimie/Follistatine/Follistatine.xlsx
+++ b/biology/Biochimie/Follistatine/Follistatine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les follistatines sont des protéines impliquées dans la régulation fine de l’action des facteurs de croissance de la famille du TGFβ, modulant notamment l’action des activines et des inhibines.
 Elles sont codées par le gène FS mesurant 5,49 kb localisé sur le chromosome 5 humain entre 52,81 et 52,82 Mb. Les follistatines existent sous trois isoformes qui se distinguent sur la base du nombre d’acides aminés qui les constituent (315, 303 et 288). Deux de ces isoformes sont obtenus par épissage alternatif (FS-315 et FS-288), le dernier (FS-303) est obtenu par excision d’un peptide de 12 acides aminés dans la partie C-terminale de l’isoforme FS-315.
@@ -514,7 +526,9 @@
           <t>Molécules apparentées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Certaines molécules sont apparentées à la famille des follistatines, elles sont dénommées FSTL pour « follistatin-like ». Parmi ces dernières on peut citer la :
 FSTL1 ;
